--- a/shape對照.xlsx
+++ b/shape對照.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\63522資料夾\PycharmProjects\TDX_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8723FF6-C0A7-4159-8CAE-3544EBD2425B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393F8F2-89A7-4A44-A4EF-88DCE9FAE360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15929" windowHeight="5671" activeTab="5" xr2:uid="{2F3AB173-4AF9-4111-8ACE-BAF2FE9D9B78}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="259">
   <si>
     <t>json_ID: ['0000100000000C', '0000100000040C', '0000100000080C', '0000100000110C']</t>
   </si>
@@ -799,9 +799,6 @@
     <t>121.72726 25.11291)</t>
   </si>
   <si>
-    <t>Geo_set = sorted(set(Geometry_result),key=Geometry_result.index)</t>
-  </si>
-  <si>
     <t>理想</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -818,6 +815,27 @@
   </si>
   <si>
     <t>121.72726 25.11291</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.73528 25.12235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.72726 25.11291</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.73230 25.11923</t>
+  </si>
+  <si>
+    <t>121.73172 25.11870</t>
+  </si>
+  <si>
+    <t>121.72760 25.11373</t>
+  </si>
+  <si>
+    <t>LINESTRING(121.73528 25.12235</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3124,11 +3142,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.3"/>
@@ -3139,21 +3157,22 @@
     <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="16">
         <v>20240425</v>
@@ -3163,7 +3182,7 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="32.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="48.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>219</v>
       </c>
@@ -3177,7 +3196,7 @@
         <v>25.122352626938799</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="11">
         <v>121.73528</v>
@@ -3186,10 +3205,13 @@
         <v>25.122350000000001</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3214,8 +3236,11 @@
       <c r="H3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3240,8 +3265,11 @@
       <c r="H4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3266,8 +3294,11 @@
       <c r="H5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3292,8 +3323,11 @@
       <c r="H6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3318,8 +3352,11 @@
       <c r="H7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3344,8 +3381,11 @@
       <c r="H8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3370,8 +3410,11 @@
       <c r="H9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3396,8 +3439,11 @@
       <c r="H10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3422,8 +3468,11 @@
       <c r="H11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3448,8 +3497,11 @@
       <c r="H12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3474,8 +3526,11 @@
       <c r="H13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3500,8 +3555,11 @@
       <c r="H14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3526,8 +3584,11 @@
       <c r="H15" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3552,8 +3613,11 @@
       <c r="H16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3578,8 +3642,11 @@
       <c r="H17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3604,8 +3671,11 @@
       <c r="H18" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3630,8 +3700,11 @@
       <c r="H19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3656,8 +3729,11 @@
       <c r="H20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3682,8 +3758,11 @@
       <c r="H21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3708,8 +3787,11 @@
       <c r="H22" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3734,8 +3816,11 @@
       <c r="H23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3760,8 +3845,11 @@
       <c r="H24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3786,8 +3874,11 @@
       <c r="H25" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3812,8 +3903,11 @@
       <c r="H26" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3838,8 +3932,11 @@
       <c r="H27" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3864,8 +3961,11 @@
       <c r="H28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3890,8 +3990,11 @@
       <c r="H29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3916,8 +4019,11 @@
       <c r="H30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3942,8 +4048,11 @@
       <c r="H31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3968,8 +4077,11 @@
       <c r="H32" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3994,8 +4106,11 @@
       <c r="H33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -4020,8 +4135,11 @@
       <c r="H34" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -4046,8 +4164,11 @@
       <c r="H35" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4072,8 +4193,11 @@
       <c r="H36" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -4098,8 +4222,11 @@
       <c r="H37" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4124,8 +4251,11 @@
       <c r="H38" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4150,8 +4280,11 @@
       <c r="H39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -4176,8 +4309,11 @@
       <c r="H40" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4202,8 +4338,11 @@
       <c r="H41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4228,8 +4367,11 @@
       <c r="H42" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4254,8 +4396,11 @@
       <c r="H43" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -4280,8 +4425,11 @@
       <c r="H44" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4306,8 +4454,11 @@
       <c r="H45" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -4321,7 +4472,7 @@
         <v>25.112909849612699</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46">
         <v>121.72726</v>
@@ -4330,15 +4481,18 @@
         <v>25.112909999999999</v>
       </c>
       <c r="H46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="I46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -4370,12 +4524,13 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47B9C61-39F3-4C96-8872-72D83272928C}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4386,142 +4541,8 @@
     <col min="1" max="1" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="48.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>228</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V1" t="s">
-        <v>230</v>
-      </c>
-      <c r="W1" t="s">
-        <v>231</v>
-      </c>
-      <c r="X1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>245</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4531,15 +4552,149 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E09B9D-04F5-4B5D-92AF-F0A13F11EA48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>246</v>
+    <row r="1" spans="1:45" ht="64.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
